--- a/data/trans_camb/iP18_E_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/iP18_E_R-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,2</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>-5,07</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 4,59</t>
+          <t>-4,11; 2,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 4,14</t>
+          <t>-3,58; 3,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 6,35</t>
+          <t>-14,59; 2,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 5,46</t>
+          <t>-3,1; 3,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 4,94</t>
+          <t>-4,87; 2,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,18; -0,33</t>
+          <t>-16,89; 0,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 4,21</t>
+          <t>-2,92; 2,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 3,64</t>
+          <t>-3,34; 1,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 2,4</t>
+          <t>-11,05; 0,1</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>-0,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>-0,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>-4,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>-0,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>-1,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,85%</t>
+          <t>-6,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>-0,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>-0,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-2,89%</t>
+          <t>-5,32%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 5,06</t>
+          <t>-4,29; 3,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 4,5</t>
+          <t>-3,65; 3,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 6,93</t>
+          <t>-15,13; 2,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 5,98</t>
+          <t>-3,24; 4,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 5,4</t>
+          <t>-5,06; 2,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,34; -0,32</t>
+          <t>-17,64; 0,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 4,58</t>
+          <t>-3,03; 2,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 3,94</t>
+          <t>-3,5; 1,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 2,55</t>
+          <t>-11,55; 0,11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,94</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,3</t>
+          <t>-9,2</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,07</t>
+          <t>-2,7</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 2,96</t>
+          <t>-2,2; 4,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 3,08</t>
+          <t>-3,05; 4,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 2,33</t>
+          <t>-5,21; 6,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 3,96</t>
+          <t>-2,19; 5,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 2,25</t>
+          <t>-2,18; 4,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 0,51</t>
+          <t>-26,18; -0,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 2,11</t>
+          <t>-1,07; 4,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 1,57</t>
+          <t>-1,71; 3,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 0,1</t>
+          <t>-11,13; 2,4</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,97%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,16%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,14%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,1%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,57%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-6,61%</t>
+          <t>-9,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-0,55%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-0,85%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-5,32%</t>
+          <t>-2,89%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 3,16</t>
+          <t>-2,31; 5,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 3,29</t>
+          <t>-3,2; 4,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 2,4</t>
+          <t>-5,44; 6,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 4,25</t>
+          <t>-2,27; 5,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 2,4</t>
+          <t>-2,31; 5,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,64; 0,56</t>
+          <t>-27,34; -0,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,23</t>
+          <t>-1,16; 4,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 1,67</t>
+          <t>-1,81; 3,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 0,11</t>
+          <t>-11,87; 2,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP18_E_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/iP18_E_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-13,31</t>
+          <t>-13,26</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>-2,0</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 8,56</t>
+          <t>1,24; 12,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 6,97</t>
+          <t>-2,86; 9,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 9,61</t>
+          <t>-0,07; 13,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 6,05</t>
+          <t>-7,09; 2,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 6,22</t>
+          <t>-6,9; 2,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,39; -0,73</t>
+          <t>-29,15; -0,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 6,23</t>
+          <t>-1,67; 5,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 5,15</t>
+          <t>-2,99; 4,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 2,22</t>
+          <t>-12,43; 4,83</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>-2,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>-1,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-14,45%</t>
+          <t>-13,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-4,41%</t>
+          <t>-2,17%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 9,94</t>
+          <t>1,39; 14,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 8,0</t>
+          <t>-3,11; 11,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 10,92</t>
+          <t>0,35; 16,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 6,78</t>
+          <t>-7,45; 2,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 7,0</t>
+          <t>-7,29; 2,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,0; -0,73</t>
+          <t>-30,35; -0,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 6,97</t>
+          <t>-1,77; 6,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 5,76</t>
+          <t>-3,22; 5,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 2,44</t>
+          <t>-13,34; 5,21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,94</t>
+          <t>-5,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,3</t>
+          <t>-5,43</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,07</t>
+          <t>-5,59</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 2,96</t>
+          <t>-2,18; 4,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 3,08</t>
+          <t>-1,94; 4,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 2,33</t>
+          <t>-17,45; 2,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 3,96</t>
+          <t>0,04; 6,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 2,25</t>
+          <t>-2,17; 5,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 0,51</t>
+          <t>-18,5; 3,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 2,11</t>
+          <t>-0,03; 4,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 1,57</t>
+          <t>-0,99; 4,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 0,1</t>
+          <t>-13,89; 0,17</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,97%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,16%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,14%</t>
+          <t>-6,18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,1%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,57%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,61%</t>
+          <t>-5,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,55%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,85%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-5,32%</t>
+          <t>-6,0%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 3,16</t>
+          <t>-2,28; 4,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 3,29</t>
+          <t>-2,03; 5,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 2,4</t>
+          <t>-18,62; 2,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 4,25</t>
+          <t>0,04; 7,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 2,4</t>
+          <t>-2,29; 5,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,64; 0,56</t>
+          <t>-19,88; 3,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,23</t>
+          <t>-0,01; 5,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 1,67</t>
+          <t>-1,05; 4,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 0,11</t>
+          <t>-14,91; 0,18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-9,2</t>
+          <t>-14,24</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>-4,39</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 4,59</t>
+          <t>-6,03; 4,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 4,14</t>
+          <t>-3,99; 5,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 6,35</t>
+          <t>-1,15; 8,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 5,46</t>
+          <t>-3,46; 6,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 4,94</t>
+          <t>-4,65; 4,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,18; -0,33</t>
+          <t>-36,21; -1,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 4,21</t>
+          <t>-3,43; 3,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 3,64</t>
+          <t>-3,17; 3,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 2,4</t>
+          <t>-15,63; 2,04</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>-1,15%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>-0,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-9,85%</t>
+          <t>-15,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-2,89%</t>
+          <t>-4,68%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 5,06</t>
+          <t>-6,3; 4,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 4,5</t>
+          <t>-4,08; 6,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 6,93</t>
+          <t>-1,18; 9,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 5,98</t>
+          <t>-3,61; 6,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 5,4</t>
+          <t>-4,86; 5,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,34; -0,32</t>
+          <t>-39,03; -1,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 4,58</t>
+          <t>-3,6; 3,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 3,94</t>
+          <t>-3,3; 3,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 2,55</t>
+          <t>-16,56; 2,21</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-8,9</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>-1,84</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 3,8</t>
+          <t>-3,53; 5,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 3,24</t>
+          <t>-5,04; 4,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 4,06</t>
+          <t>-10,55; 5,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 3,26</t>
+          <t>-3,16; 5,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 2,45</t>
+          <t>-3,23; 5,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,64; -3,13</t>
+          <t>-18,41; 3,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,97</t>
+          <t>-2,13; 4,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,32</t>
+          <t>-2,59; 3,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,88; -0,15</t>
+          <t>-9,52; 3,27</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>-0,08%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>-0,84%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-9,51%</t>
+          <t>-3,83%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-3,76%</t>
+          <t>-1,96%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 4,12</t>
+          <t>-3,71; 5,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 3,53</t>
+          <t>-5,33; 4,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 4,42</t>
+          <t>-11,13; 5,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 3,53</t>
+          <t>-3,29; 5,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,65</t>
+          <t>-3,32; 6,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,77; -3,35</t>
+          <t>-19,35; 3,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 3,22</t>
+          <t>-2,25; 4,49</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 2,51</t>
+          <t>-2,71; 3,97</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-8,46; -0,23</t>
+          <t>-10,13; 3,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-8,9</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-3,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,3; 3,73</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 3,29</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-3,86; 4,33</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,05; 3,31</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-1,73; 2,72</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-17,04; -3,24</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,11; 2,87</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 2,33</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-8,01; -0,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1,23%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0,52%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-9,51%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,49%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-3,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 4,07</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 3,57</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-4,08; 4,65</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-1,1; 3,62</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-1,84; 2,95</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-18,38; -3,52</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-0,11; 3,12</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 2,53</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-8,53; -0,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/iP18_E_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/iP18_E_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 12,47</t>
+          <t>0,48; 12,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 9,4</t>
+          <t>-3,16; 9,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 13,69</t>
+          <t>-0,07; 13,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 2,62</t>
+          <t>-7,59; 2,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 2,65</t>
+          <t>-6,59; 3,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,15; -0,8</t>
+          <t>-31,64; -0,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 5,61</t>
+          <t>-1,75; 6,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 4,57</t>
+          <t>-3,01; 4,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 4,83</t>
+          <t>-12,2; 4,63</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 14,73</t>
+          <t>0,52; 14,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 11,15</t>
+          <t>-3,22; 11,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 16,31</t>
+          <t>0,25; 16,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 2,76</t>
+          <t>-7,88; 2,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 2,79</t>
+          <t>-6,8; 4,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,35; -0,78</t>
+          <t>-33,5; -0,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 6,26</t>
+          <t>-1,88; 7,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 5,1</t>
+          <t>-3,15; 5,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 5,21</t>
+          <t>-13,17; 5,1</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 4,5</t>
+          <t>-1,88; 4,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 4,66</t>
+          <t>-2,12; 4,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 2,81</t>
+          <t>-17,62; 2,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 6,55</t>
+          <t>0,13; 6,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 5,39</t>
+          <t>-2,02; 5,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,5; 3,05</t>
+          <t>-18,74; 2,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 4,72</t>
+          <t>0,07; 4,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 4,06</t>
+          <t>-1,06; 3,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 0,17</t>
+          <t>-14,65; 0,43</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 4,89</t>
+          <t>-1,97; 5,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 5,07</t>
+          <t>-2,22; 4,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,62; 2,93</t>
+          <t>-18,68; 2,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,04; 7,19</t>
+          <t>0,14; 7,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 5,95</t>
+          <t>-2,1; 5,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,88; 3,32</t>
+          <t>-20,1; 2,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 5,18</t>
+          <t>0,07; 5,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 4,39</t>
+          <t>-1,1; 4,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-14,91; 0,18</t>
+          <t>-15,58; 0,46</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 4,36</t>
+          <t>-6,39; 4,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 5,43</t>
+          <t>-3,81; 5,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 8,72</t>
+          <t>-1,16; 8,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 6,22</t>
+          <t>-3,74; 6,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 4,82</t>
+          <t>-4,57; 5,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-36,21; -1,82</t>
+          <t>-37,21; -1,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 3,43</t>
+          <t>-3,39; 3,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 3,33</t>
+          <t>-2,85; 3,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 2,04</t>
+          <t>-16,22; 1,84</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 4,78</t>
+          <t>-6,67; 4,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 6,03</t>
+          <t>-3,9; 5,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 9,64</t>
+          <t>-1,19; 9,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 6,98</t>
+          <t>-3,91; 6,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 5,35</t>
+          <t>-4,8; 6,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,03; -1,95</t>
+          <t>-39,53; -2,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 3,72</t>
+          <t>-3,55; 3,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 3,65</t>
+          <t>-2,97; 3,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,56; 2,21</t>
+          <t>-17,25; 1,98</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 5,06</t>
+          <t>-3,44; 5,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 4,08</t>
+          <t>-4,74; 4,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 5,09</t>
+          <t>-11,29; 5,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 5,22</t>
+          <t>-3,67; 5,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 5,52</t>
+          <t>-2,69; 5,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,41; 3,36</t>
+          <t>-16,33; 4,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 4,09</t>
+          <t>-2,24; 4,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 3,65</t>
+          <t>-2,64; 4,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 3,27</t>
+          <t>-9,39; 3,13</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 5,53</t>
+          <t>-3,6; 5,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 4,48</t>
+          <t>-4,91; 4,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 5,5</t>
+          <t>-11,93; 5,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 5,81</t>
+          <t>-3,84; 5,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 6,06</t>
+          <t>-2,8; 6,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,35; 3,56</t>
+          <t>-17,04; 4,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 4,49</t>
+          <t>-2,41; 4,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 3,97</t>
+          <t>-2,79; 4,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 3,48</t>
+          <t>-9,93; 3,34</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 3,73</t>
+          <t>-0,59; 3,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 3,29</t>
+          <t>-1,09; 3,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 4,33</t>
+          <t>-3,57; 4,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 3,31</t>
+          <t>-1,09; 3,28</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 2,72</t>
+          <t>-1,88; 2,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,04; -3,24</t>
+          <t>-18,44; -3,18</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 2,87</t>
+          <t>-0,07; 2,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 2,33</t>
+          <t>-0,86; 2,14</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,01; -0,56</t>
+          <t>-8,33; -0,31</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 4,07</t>
+          <t>-0,63; 4,07</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 3,57</t>
+          <t>-1,16; 3,52</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 4,65</t>
+          <t>-3,83; 4,38</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,62</t>
+          <t>-1,14; 3,55</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 2,95</t>
+          <t>-1,97; 3,01</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-18,38; -3,52</t>
+          <t>-20,11; -3,48</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 3,12</t>
+          <t>-0,06; 3,18</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,53</t>
+          <t>-0,91; 2,32</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-8,53; -0,6</t>
+          <t>-8,91; -0,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP18_E_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/iP18_E_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-2,17</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-1,86</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-13,42</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>6,16</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>2,87</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,46</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-2,17</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-1,86</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-13,26</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-1,93</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 12,49</t>
+          <t>-7,16; 2,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 9,43</t>
+          <t>-6,94; 3,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 13,88</t>
+          <t>-30,44; -0,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 2,21</t>
+          <t>0,73; 12,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 3,75</t>
+          <t>-3,24; 8,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,64; -0,81</t>
+          <t>0,18; 14,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 6,24</t>
+          <t>-2,01; 6,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 4,62</t>
+          <t>-3,67; 4,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 4,63</t>
+          <t>-11,25; 4,68</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-2,29%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-1,95%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-14,1%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>6,9%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>3,22%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>9,47%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-2,29%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-1,95%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-13,94%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-2,17%</t>
+          <t>-2,09%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 14,83</t>
+          <t>-7,34; 2,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 11,25</t>
+          <t>-7,14; 3,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 16,43</t>
+          <t>-31,8; -0,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 2,27</t>
+          <t>0,96; 14,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 4,09</t>
+          <t>-3,5; 10,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,5; -0,86</t>
+          <t>0,43; 17,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 7,0</t>
+          <t>-2,07; 6,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 5,2</t>
+          <t>-3,9; 5,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 5,1</t>
+          <t>-12,16; 5,08</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,21</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-5,3</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,44</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>1,16</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,79</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,21</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,43</t>
+          <t>-6,22</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,59</t>
+          <t>-5,77</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 4,71</t>
+          <t>0,03; 6,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 4,45</t>
+          <t>-2,14; 5,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,62; 2,32</t>
+          <t>-16,89; 3,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 6,77</t>
+          <t>-1,94; 4,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 5,45</t>
+          <t>-1,89; 4,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,74; 2,07</t>
+          <t>-18,76; 1,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,07; 4,62</t>
+          <t>0,07; 4,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 3,85</t>
+          <t>-0,85; 3,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 0,43</t>
+          <t>-14,18; 0,59</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>3,45%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,94%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-5,71%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>1,54%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>1,24%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-6,64%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2,45%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>-6,18%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,45%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,94%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-5,84%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,45%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>1,59%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-6,0%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 5,16</t>
+          <t>0,03; 7,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 4,83</t>
+          <t>-2,26; 5,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 2,46</t>
+          <t>-18,1; 3,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,14; 7,44</t>
+          <t>-2,01; 5,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 5,98</t>
+          <t>-1,97; 5,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 2,28</t>
+          <t>-19,91; 1,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 5,02</t>
+          <t>0,07; 5,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 4,18</t>
+          <t>-0,9; 4,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,58; 0,46</t>
+          <t>-14,97; 0,66</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-16,45</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-1,08</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,53</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,15</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,21</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-14,24</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,39</t>
+          <t>-5,24</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 4,19</t>
+          <t>-3,6; 6,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 5,28</t>
+          <t>-5,18; 4,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 8,34</t>
+          <t>-44,91; -2,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 6,22</t>
+          <t>-6,08; 4,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 5,63</t>
+          <t>-4,12; 5,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-37,21; -1,95</t>
+          <t>-0,57; 8,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 3,55</t>
+          <t>-3,29; 3,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 3,55</t>
+          <t>-3,13; 3,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-16,22; 1,84</t>
+          <t>-19,07; 2,02</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-0,28%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-17,62%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-1,15%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>0,57%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4,4%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,3%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-0,28%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-15,25%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-4,68%</t>
+          <t>-5,59%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 4,48</t>
+          <t>-3,72; 7,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 5,84</t>
+          <t>-5,41; 5,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 9,12</t>
+          <t>-46,74; -3,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 6,88</t>
+          <t>-6,43; 4,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 6,36</t>
+          <t>-4,26; 5,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,53; -2,12</t>
+          <t>-0,56; 9,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 3,84</t>
+          <t>-3,46; 3,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 3,89</t>
+          <t>-3,29; 3,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 1,98</t>
+          <t>-20,14; 2,16</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-3,7</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,84</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-0,07</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,78</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,59</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-1,73</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 5,29</t>
+          <t>-3,45; 5,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 4,41</t>
+          <t>-2,9; 5,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 5,23</t>
+          <t>-15,67; 4,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 5,17</t>
+          <t>-3,37; 4,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 5,92</t>
+          <t>-4,56; 4,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 4,39</t>
+          <t>-9,79; 4,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 4,03</t>
+          <t>-2,12; 4,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 4,1</t>
+          <t>-2,74; 3,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 3,13</t>
+          <t>-8,48; 3,3</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,34%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-3,95%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>0,9%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-0,08%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-0,84%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>0,84%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>1,34%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-3,83%</t>
+          <t>-0,66%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-1,96%</t>
+          <t>-1,85%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 5,79</t>
+          <t>-3,59; 6,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 4,86</t>
+          <t>-3,04; 6,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 5,65</t>
+          <t>-16,69; 4,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 5,65</t>
+          <t>-3,48; 5,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 6,53</t>
+          <t>-4,8; 4,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,04; 4,69</t>
+          <t>-10,37; 5,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 4,36</t>
+          <t>-2,21; 4,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 4,5</t>
+          <t>-2,89; 4,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 3,34</t>
+          <t>-8,99; 3,54</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-9,68</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>1,62</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>1,07</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-8,9</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>-3,77</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 3,72</t>
+          <t>-0,87; 3,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 3,24</t>
+          <t>-1,84; 2,45</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 4,04</t>
+          <t>-18,9; -3,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 3,28</t>
+          <t>-0,52; 3,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,77</t>
+          <t>-1,08; 3,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-18,44; -3,18</t>
+          <t>-3,71; 4,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 2,92</t>
+          <t>-0,2; 2,97</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 2,14</t>
+          <t>-0,82; 2,32</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,33; -0,31</t>
+          <t>-8,62; -0,19</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>1,23%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0,52%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-10,35%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>1,74%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>1,15%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>0,86%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>1,23%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>0,52%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-9,51%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-3,76%</t>
+          <t>-4,04%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 4,07</t>
+          <t>-0,9; 3,53</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 3,52</t>
+          <t>-1,93; 2,65</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 4,38</t>
+          <t>-20,09; -4,09</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 3,55</t>
+          <t>-0,55; 4,12</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 3,01</t>
+          <t>-1,15; 3,53</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,11; -3,48</t>
+          <t>-3,92; 4,43</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 3,18</t>
+          <t>-0,21; 3,22</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,32</t>
+          <t>-0,86; 2,51</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-8,91; -0,34</t>
+          <t>-9,25; -0,22</t>
         </is>
       </c>
     </row>
